--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>81.612670043247448</v>
+        <v>81.612670027481855</v>
       </c>
       <c r="C2">
-        <v>69.726472672916245</v>
+        <v>69.726472672854527</v>
       </c>
       <c r="D2">
-        <v>64.139530780338546</v>
+        <v>64.139530827253694</v>
       </c>
       <c r="E2">
-        <v>27.744496091284521</v>
+        <v>27.744496126493047</v>
       </c>
       <c r="F2">
-        <v>67.874391315468657</v>
+        <v>67.874391380901912</v>
       </c>
       <c r="G2">
-        <v>85.824594202820506</v>
+        <v>85.824594216162922</v>
       </c>
       <c r="H2">
-        <v>62.792834664333405</v>
+        <v>62.79283470071698</v>
       </c>
       <c r="I2">
-        <v>63.128016550579858</v>
+        <v>63.128016561594144</v>
       </c>
       <c r="J2">
-        <v>63.936810901129235</v>
+        <v>63.936810933401958</v>
       </c>
       <c r="K2">
-        <v>85.561198569611662</v>
+        <v>85.561198610604478</v>
       </c>
       <c r="L2">
-        <v>93.497543505704812</v>
+        <v>93.497543495213932</v>
       </c>
       <c r="M2">
-        <v>114.6000988925513</v>
+        <v>114.60009888230722</v>
       </c>
       <c r="N2">
-        <v>61.639989907310508</v>
+        <v>61.639989910589534</v>
       </c>
       <c r="O2">
-        <v>59.682377863075111</v>
+        <v>59.682377962438423</v>
       </c>
       <c r="P2">
-        <v>52.591020585625891</v>
+        <v>52.591020581834201</v>
       </c>
       <c r="Q2">
-        <v>97.703937705992658</v>
+        <v>97.703937719810085</v>
       </c>
       <c r="R2">
-        <v>118.79289655186945</v>
+        <v>118.79289664928542</v>
       </c>
       <c r="S2">
-        <v>36.363255048461731</v>
+        <v>36.363254998667308</v>
       </c>
       <c r="T2">
-        <v>39.407383873516814</v>
+        <v>39.407383846447495</v>
       </c>
       <c r="U2">
-        <v>93.881527547799934</v>
+        <v>93.881527626040835</v>
       </c>
       <c r="V2">
-        <v>77.575139248468815</v>
+        <v>77.575139305141562</v>
       </c>
       <c r="W2">
-        <v>152.52809313771593</v>
+        <v>152.52809319089911</v>
       </c>
       <c r="X2">
-        <v>90.184132879624102</v>
+        <v>90.184132885010953</v>
       </c>
       <c r="Y2">
-        <v>25.267111454065027</v>
+        <v>25.267111532693402</v>
       </c>
       <c r="Z2">
-        <v>60.597217977223558</v>
+        <v>60.597218051959025</v>
       </c>
       <c r="AA2">
-        <v>47.205615749716358</v>
+        <v>47.205615814073717</v>
       </c>
       <c r="AB2">
-        <v>61.497154593811153</v>
+        <v>61.497154695823355</v>
       </c>
       <c r="AC2">
-        <v>92.702709418572653</v>
+        <v>92.702709468352438</v>
       </c>
       <c r="AD2">
-        <v>21.706320330007802</v>
+        <v>21.706320469632125</v>
       </c>
       <c r="AE2">
-        <v>68.228296963849331</v>
+        <v>68.228297022808107</v>
       </c>
       <c r="AF2">
-        <v>58.89018572482243</v>
+        <v>58.890185774039558</v>
       </c>
       <c r="AG2">
-        <v>48.857400553490848</v>
+        <v>48.857400627360541</v>
       </c>
       <c r="AH2">
-        <v>49.398503008271689</v>
+        <v>49.398503071973629</v>
       </c>
       <c r="AI2">
-        <v>63.301529232519826</v>
+        <v>63.301529312202966</v>
       </c>
       <c r="AJ2">
-        <v>63.472160798049451</v>
+        <v>63.472160857626115</v>
       </c>
       <c r="AK2">
-        <v>65.508863741681338</v>
+        <v>65.508863792570551</v>
       </c>
       <c r="AL2">
-        <v>101.53778975981527</v>
+        <v>101.53778980421106</v>
       </c>
       <c r="AM2">
-        <v>53.355964592450825</v>
+        <v>53.355964643435129</v>
       </c>
       <c r="AN2">
-        <v>58.029935035904067</v>
+        <v>58.0299351211684</v>
       </c>
       <c r="AO2">
-        <v>31.972302236698308</v>
+        <v>31.972302267233204</v>
       </c>
       <c r="AP2">
-        <v>48.530075342346848</v>
+        <v>48.53007542925387</v>
       </c>
       <c r="AQ2">
-        <v>98.617463141079796</v>
+        <v>98.617463199216687</v>
       </c>
       <c r="AR2">
-        <v>33.293462138614778</v>
+        <v>33.293462167559348</v>
       </c>
       <c r="AS2">
-        <v>40.550490925711259</v>
+        <v>40.550491005996996</v>
       </c>
       <c r="AT2">
-        <v>65.056997223995822</v>
+        <v>65.056997291145734</v>
       </c>
       <c r="AU2">
-        <v>44.781125215429519</v>
+        <v>44.781125341719225</v>
       </c>
       <c r="AV2">
-        <v>85.240864681928059</v>
+        <v>85.240864841617267</v>
       </c>
       <c r="AW2">
-        <v>79.715448468359256</v>
+        <v>79.715448549504728</v>
       </c>
       <c r="AX2">
-        <v>42.523481379997726</v>
+        <v>42.523481470360601</v>
       </c>
       <c r="AY2">
-        <v>23.068280737079576</v>
+        <v>23.068280812082822</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>80.996040516562132</v>
+        <v>80.996040557206229</v>
       </c>
       <c r="C3">
-        <v>77.658422192931113</v>
+        <v>77.6584222691327</v>
       </c>
       <c r="D3">
-        <v>45.710483320060746</v>
+        <v>45.710483433385214</v>
       </c>
       <c r="E3">
-        <v>46.920471582745769</v>
+        <v>46.920471649469292</v>
       </c>
       <c r="F3">
-        <v>76.735010903891691</v>
+        <v>76.735010971952107</v>
       </c>
       <c r="G3">
-        <v>56.553814048684615</v>
+        <v>56.553814084690131</v>
       </c>
       <c r="H3">
-        <v>98.975775126606521</v>
+        <v>98.975775158394413</v>
       </c>
       <c r="I3">
-        <v>85.120034656184288</v>
+        <v>85.120034685189154</v>
       </c>
       <c r="J3">
-        <v>53.353168947259633</v>
+        <v>53.353168965971143</v>
       </c>
       <c r="K3">
-        <v>-36.731923282646903</v>
+        <v>-36.731923278649518</v>
       </c>
       <c r="L3">
-        <v>53.310759998382409</v>
+        <v>53.310760034328744</v>
       </c>
       <c r="M3">
-        <v>88.987223019936266</v>
+        <v>88.988023797192767</v>
       </c>
       <c r="N3">
-        <v>68.935771203861052</v>
+        <v>68.935771255227024</v>
       </c>
       <c r="O3">
-        <v>148.54646394567072</v>
+        <v>148.5464639813722</v>
       </c>
       <c r="P3">
-        <v>54.764155272120306</v>
+        <v>54.764155373335477</v>
       </c>
       <c r="Q3">
-        <v>71.933714190678373</v>
+        <v>71.933714213681782</v>
       </c>
       <c r="R3">
-        <v>104.13092111463162</v>
+        <v>104.13092115548437</v>
       </c>
       <c r="S3">
-        <v>43.6699317887877</v>
+        <v>43.669931802488229</v>
       </c>
       <c r="T3">
-        <v>48.045238635603873</v>
+        <v>48.045238683111556</v>
       </c>
       <c r="U3">
-        <v>60.983891560481183</v>
+        <v>60.983891606621185</v>
       </c>
       <c r="V3">
-        <v>58.133819453487909</v>
+        <v>58.133819491176752</v>
       </c>
       <c r="W3">
-        <v>104.6277410785067</v>
+        <v>104.62774113186961</v>
       </c>
       <c r="X3">
-        <v>105.98171219545287</v>
+        <v>105.98171223632981</v>
       </c>
       <c r="Y3">
-        <v>14.472775643237433</v>
+        <v>14.472775752120008</v>
       </c>
       <c r="Z3">
-        <v>42.638997528409618</v>
+        <v>42.638997632630272</v>
       </c>
       <c r="AA3">
-        <v>44.588609090602894</v>
+        <v>44.588609160642918</v>
       </c>
       <c r="AB3">
-        <v>47.088561289463563</v>
+        <v>47.08856139196574</v>
       </c>
       <c r="AC3">
-        <v>45.136969366934046</v>
+        <v>45.13696940356639</v>
       </c>
       <c r="AD3">
-        <v>33.47308949387098</v>
+        <v>33.473089553560257</v>
       </c>
       <c r="AE3">
-        <v>40.076034087600263</v>
+        <v>40.076034122063056</v>
       </c>
       <c r="AF3">
-        <v>63.919565159361447</v>
+        <v>63.919565218364504</v>
       </c>
       <c r="AG3">
-        <v>71.858431249826026</v>
+        <v>71.858431300817728</v>
       </c>
       <c r="AH3">
-        <v>80.157186745466575</v>
+        <v>80.157186801316342</v>
       </c>
       <c r="AI3">
-        <v>-18.666973495747648</v>
+        <v>-18.66697341199529</v>
       </c>
       <c r="AJ3">
-        <v>42.224905997209632</v>
+        <v>42.224906024279562</v>
       </c>
       <c r="AK3">
-        <v>54.494077214801173</v>
+        <v>54.494077288586638</v>
       </c>
       <c r="AL3">
-        <v>64.781805026734418</v>
+        <v>64.781805116189801</v>
       </c>
       <c r="AM3">
-        <v>62.028960072993087</v>
+        <v>62.028960197904723</v>
       </c>
       <c r="AN3">
-        <v>134.85154328229925</v>
+        <v>134.85154333186159</v>
       </c>
       <c r="AO3">
-        <v>43.415777607888387</v>
+        <v>43.415777743856651</v>
       </c>
       <c r="AP3">
-        <v>80.786257950897593</v>
+        <v>80.786258023556684</v>
       </c>
       <c r="AQ3">
-        <v>64.268464170230175</v>
+        <v>64.268464282670365</v>
       </c>
       <c r="AR3">
-        <v>29.459804641132788</v>
+        <v>29.459804678021719</v>
       </c>
       <c r="AS3">
-        <v>56.983487107686457</v>
+        <v>56.983487152459375</v>
       </c>
       <c r="AT3">
-        <v>41.181133669295377</v>
+        <v>41.181133793460639</v>
       </c>
       <c r="AU3">
-        <v>66.171882227532677</v>
+        <v>66.171882231297147</v>
       </c>
       <c r="AV3">
-        <v>78.262207255697334</v>
+        <v>78.262207355207352</v>
       </c>
       <c r="AW3">
-        <v>81.962215271837024</v>
+        <v>81.962215340317684</v>
       </c>
       <c r="AX3">
-        <v>73.195160766626628</v>
+        <v>73.19516082364494</v>
       </c>
       <c r="AY3">
-        <v>13.61565634025953</v>
+        <v>13.615656450881639</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>81.612670027481855</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>69.726472672854527</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>64.139530827253694</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>27.744496126493047</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>67.874391380901912</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>85.824594216162922</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>62.79283470071698</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>63.128016561594144</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>63.936810933401958</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>85.561198610604478</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>93.497543495213932</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>114.60009888230722</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>61.639989910589534</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>59.682377962438423</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>52.591020581834201</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>97.703937719810085</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>118.79289664928542</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>36.363254998667308</v>
+        <v>56.17042037012282</v>
       </c>
       <c r="T2">
         <v>39.407383846447495</v>
@@ -588,55 +477,55 @@
         <v>60.597218051959025</v>
       </c>
       <c r="AA2">
-        <v>47.205615814073717</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>61.497154695823355</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>92.702709468352438</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>21.706320469632125</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>68.228297022808107</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>58.890185774039558</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>48.857400627360541</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>49.398503071973629</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>63.301529312202966</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>63.472160857626115</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>65.508863792570551</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>101.53778980421106</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>53.355964643435129</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>58.0299351211684</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>31.972302267233204</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>48.53007542925387</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>98.617463199216687</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>33.293462167559348</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>80.996040557206229</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>77.6584222691327</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>45.710483433385214</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>46.920471649469292</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>76.735010971952107</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>56.553814084690131</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>98.975775158394413</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>85.120034685189154</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>53.353168965971143</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-36.731923278649518</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>53.310760034328744</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>88.988023797192767</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>68.935771255227024</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>148.5464639813722</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>54.764155373335477</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>71.933714213681782</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>104.13092115548437</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>43.669931802488229</v>
@@ -743,55 +629,55 @@
         <v>42.638997632630272</v>
       </c>
       <c r="AA3">
-        <v>44.588609160642918</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>47.08856139196574</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>45.13696940356639</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>33.473089553560257</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>40.076034122063056</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>63.919565218364504</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>71.858431300817728</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>80.157186801316342</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-18.66697341199529</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>42.224906024279562</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>54.494077288586638</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>64.781805116189801</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>62.028960197904723</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>134.85154333186159</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>43.415777743856651</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>80.786258023556684</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>64.268464282670365</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>29.459804678021719</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>90.860471916029525</v>
+        <v>55.699168891699358</v>
       </c>
       <c r="C2">
-        <v>85.278801938916132</v>
+        <v>60.778775624858106</v>
       </c>
       <c r="D2">
-        <v>48.813148317330196</v>
+        <v>51.337072624918413</v>
       </c>
       <c r="E2">
-        <v>73.305584044857653</v>
+        <v>71.519478132967635</v>
       </c>
       <c r="F2">
         <v>66.216947413160355</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>83.543010585939058</v>
+        <v>31.908378433147845</v>
       </c>
       <c r="C3">
-        <v>70.217220856918715</v>
+        <v>62.140063266426878</v>
       </c>
       <c r="D3">
-        <v>57.357627020653325</v>
+        <v>54.722123549108382</v>
       </c>
       <c r="E3">
-        <v>-12.070902812639632</v>
+        <v>82.065695361940101</v>
       </c>
       <c r="F3">
         <v>75.56371466303068</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>90.860471916029525</v>
+        <v>83.685038754406875</v>
       </c>
       <c r="C2">
-        <v>85.278801938916132</v>
+        <v>55.699168891699358</v>
       </c>
       <c r="D2">
-        <v>48.813148317330196</v>
+        <v>52.557941815545774</v>
       </c>
       <c r="E2">
-        <v>73.305584044857653</v>
+        <v>51.337072624918413</v>
       </c>
       <c r="F2">
         <v>66.216947413160355</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>83.543010585939058</v>
+        <v>72.869242233839898</v>
       </c>
       <c r="C3">
-        <v>70.217220856918715</v>
+        <v>31.908378433147845</v>
       </c>
       <c r="D3">
-        <v>57.357627020653325</v>
+        <v>42.837996626649741</v>
       </c>
       <c r="E3">
-        <v>-58.467808491488135</v>
+        <v>54.722123549108382</v>
       </c>
       <c r="F3">
         <v>75.56371466303068</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>90.860471830150559</v>
+      </c>
+      <c r="C2">
+        <v>85.278802100898545</v>
+      </c>
+      <c r="D2">
+        <v>48.813148628896016</v>
+      </c>
+      <c r="E2">
+        <v>73.30558426437301</v>
+      </c>
+      <c r="F2">
+        <v>66.216947801815692</v>
+      </c>
+      <c r="G2">
+        <v>67.229567195735527</v>
+      </c>
+      <c r="H2">
+        <v>91.374483963789459</v>
+      </c>
+      <c r="I2">
+        <v>81.534822185774104</v>
+      </c>
+      <c r="J2">
+        <v>76.685508346658722</v>
+      </c>
+      <c r="K2">
+        <v>79.932133429038004</v>
+      </c>
+      <c r="L2">
+        <v>85.137707565984087</v>
+      </c>
+      <c r="M2">
+        <v>68.835948861765729</v>
+      </c>
+      <c r="N2">
         <v>83.685038754406875</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>55.699168891699358</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>101.27883772276232</v>
+      </c>
+      <c r="Q2">
+        <v>85.611492695776349</v>
+      </c>
+      <c r="R2">
+        <v>60.778775624858106</v>
+      </c>
+      <c r="T2">
+        <v>77.028511977919194</v>
+      </c>
+      <c r="U2">
+        <v>60.885629226264257</v>
+      </c>
+      <c r="V2">
+        <v>67.836789746097097</v>
+      </c>
+      <c r="W2">
+        <v>69.676829483961825</v>
+      </c>
+      <c r="X2">
+        <v>81.548860396622757</v>
+      </c>
+      <c r="Y2">
+        <v>55.67785581067637</v>
+      </c>
+      <c r="Z2">
+        <v>31.934855364191648</v>
+      </c>
+      <c r="AA2">
+        <v>42.75393731713794</v>
+      </c>
+      <c r="AB2">
+        <v>22.781507801369376</v>
+      </c>
+      <c r="AC2">
+        <v>52.993651607899352</v>
+      </c>
+      <c r="AD2">
+        <v>35.506721381828307</v>
+      </c>
+      <c r="AE2">
+        <v>66.585394272052966</v>
+      </c>
+      <c r="AF2">
+        <v>56.264547996416781</v>
+      </c>
+      <c r="AG2">
+        <v>58.59862195451889</v>
+      </c>
+      <c r="AH2">
+        <v>50.52666295378139</v>
+      </c>
+      <c r="AI2">
+        <v>30.751748909029086</v>
+      </c>
+      <c r="AJ2">
+        <v>58.563491007841776</v>
+      </c>
+      <c r="AK2">
+        <v>76.875347911199171</v>
+      </c>
+      <c r="AL2">
+        <v>79.774701594401549</v>
+      </c>
+      <c r="AM2">
         <v>52.557941815545774</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>51.337072624918413</v>
       </c>
-      <c r="F2">
-        <v>66.216947413160355</v>
-      </c>
-      <c r="G2">
-        <v>67.229567205124212</v>
-      </c>
-      <c r="H2">
-        <v>91.374483818770145</v>
-      </c>
-      <c r="I2">
-        <v>81.534821816404374</v>
-      </c>
-      <c r="J2">
-        <v>76.685508077030491</v>
-      </c>
-      <c r="K2">
-        <v>79.93213317637381</v>
-      </c>
-      <c r="L2">
-        <v>85.137707370925668</v>
-      </c>
-      <c r="M2">
-        <v>68.83594907468779</v>
-      </c>
-      <c r="N2">
-        <v>83.685038584001106</v>
-      </c>
-      <c r="O2">
-        <v>55.699168451803679</v>
-      </c>
-      <c r="P2">
-        <v>101.27883778950699</v>
-      </c>
-      <c r="Q2">
-        <v>85.611492581789363</v>
-      </c>
-      <c r="R2">
-        <v>60.778775154740707</v>
-      </c>
-      <c r="T2">
-        <v>77.028511824947842</v>
-      </c>
-      <c r="U2">
-        <v>60.885628682385331</v>
-      </c>
-      <c r="V2">
-        <v>67.836789263764885</v>
-      </c>
-      <c r="W2">
-        <v>69.676829265588125</v>
-      </c>
-      <c r="X2">
-        <v>81.548860354004375</v>
-      </c>
-      <c r="Y2">
-        <v>55.67785536847164</v>
-      </c>
-      <c r="Z2">
-        <v>31.934854842981782</v>
-      </c>
-      <c r="AA2">
-        <v>42.75393681786538</v>
-      </c>
-      <c r="AB2">
-        <v>22.7815070975686</v>
-      </c>
-      <c r="AC2">
-        <v>52.993651277176603</v>
-      </c>
-      <c r="AD2">
-        <v>35.506720525962585</v>
-      </c>
-      <c r="AE2">
-        <v>66.585393887098888</v>
-      </c>
-      <c r="AF2">
-        <v>56.26454766936105</v>
-      </c>
-      <c r="AG2">
-        <v>58.598621544015707</v>
-      </c>
-      <c r="AH2">
-        <v>50.526662582709122</v>
-      </c>
-      <c r="AI2">
-        <v>30.751748302656452</v>
-      </c>
-      <c r="AJ2">
-        <v>58.563490696825696</v>
-      </c>
-      <c r="AK2">
-        <v>76.875347588072685</v>
-      </c>
-      <c r="AL2">
-        <v>79.77470128369977</v>
-      </c>
-      <c r="AM2">
-        <v>52.557941537573328</v>
-      </c>
-      <c r="AN2">
-        <v>51.337072060398604</v>
-      </c>
       <c r="AO2">
-        <v>60.744154816114872</v>
+        <v>60.744155045010885</v>
       </c>
       <c r="AP2">
-        <v>57.329891261222045</v>
+        <v>57.329891648986511</v>
       </c>
       <c r="AQ2">
-        <v>71.519477819599004</v>
+        <v>71.519478132967635</v>
       </c>
       <c r="AR2">
-        <v>68.912156582675607</v>
+        <v>68.912156795313578</v>
       </c>
       <c r="AS2">
-        <v>74.551903875929852</v>
+        <v>74.551904389838327</v>
       </c>
       <c r="AT2">
-        <v>33.459558556051206</v>
+        <v>33.459559017458758</v>
       </c>
       <c r="AU2">
-        <v>73.63471513656971</v>
+        <v>73.634715436111335</v>
       </c>
       <c r="AV2">
-        <v>44.102543507086345</v>
+        <v>44.102544108274941</v>
       </c>
       <c r="AW2">
-        <v>41.173723408646588</v>
+        <v>41.173723911593548</v>
       </c>
       <c r="AX2">
-        <v>42.371492852737681</v>
+        <v>42.371493474960516</v>
       </c>
       <c r="AY2">
-        <v>44.613730176189321</v>
+        <v>44.6137306716438</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>83.543010822722266</v>
+      </c>
+      <c r="C3">
+        <v>70.217221305167541</v>
+      </c>
+      <c r="D3">
+        <v>57.357627836268399</v>
+      </c>
+      <c r="E3">
+        <v>-58.46780690141847</v>
+      </c>
+      <c r="F3">
+        <v>75.563715016760696</v>
+      </c>
+      <c r="G3">
+        <v>66.922366322448838</v>
+      </c>
+      <c r="H3">
+        <v>75.705753530188275</v>
+      </c>
+      <c r="I3">
+        <v>88.687934806139722</v>
+      </c>
+      <c r="J3">
+        <v>69.680620399069582</v>
+      </c>
+      <c r="K3">
+        <v>73.581725942150797</v>
+      </c>
+      <c r="L3">
+        <v>74.04813278346181</v>
+      </c>
+      <c r="M3">
+        <v>71.08309537489103</v>
+      </c>
+      <c r="N3">
         <v>72.869242233839898</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>31.908378433147845</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>49.437118010869838</v>
+      </c>
+      <c r="Q3">
+        <v>87.270004632874674</v>
+      </c>
+      <c r="R3">
+        <v>62.140063266426878</v>
+      </c>
+      <c r="S3">
+        <v>71.341814215933866</v>
+      </c>
+      <c r="T3">
+        <v>66.779782651885156</v>
+      </c>
+      <c r="U3">
+        <v>62.696918629650511</v>
+      </c>
+      <c r="V3">
+        <v>75.477605647442871</v>
+      </c>
+      <c r="W3">
+        <v>77.782815364786856</v>
+      </c>
+      <c r="X3">
+        <v>69.921752233496022</v>
+      </c>
+      <c r="Y3">
+        <v>30.982516596034436</v>
+      </c>
+      <c r="Z3">
+        <v>30.994614524123065</v>
+      </c>
+      <c r="AA3">
+        <v>50.449498869211219</v>
+      </c>
+      <c r="AB3">
+        <v>46.501664669324718</v>
+      </c>
+      <c r="AC3">
+        <v>65.628076530120822</v>
+      </c>
+      <c r="AD3">
+        <v>46.881975214477109</v>
+      </c>
+      <c r="AE3">
+        <v>53.617350830420996</v>
+      </c>
+      <c r="AF3">
+        <v>38.594192521847603</v>
+      </c>
+      <c r="AG3">
+        <v>68.279260175928655</v>
+      </c>
+      <c r="AH3">
+        <v>73.100967449226289</v>
+      </c>
+      <c r="AI3">
+        <v>45.382326878010815</v>
+      </c>
+      <c r="AJ3">
+        <v>44.322035119610106</v>
+      </c>
+      <c r="AK3">
+        <v>60.232203439884188</v>
+      </c>
+      <c r="AL3">
+        <v>54.071201695326785</v>
+      </c>
+      <c r="AM3">
         <v>42.837996626649741</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>54.722123549108382</v>
       </c>
-      <c r="F3">
-        <v>75.56371466303068</v>
-      </c>
-      <c r="G3">
-        <v>66.922366093784944</v>
-      </c>
-      <c r="H3">
-        <v>75.705753328229733</v>
-      </c>
-      <c r="I3">
-        <v>88.687934623702503</v>
-      </c>
-      <c r="J3">
-        <v>69.680620262535669</v>
-      </c>
-      <c r="K3">
-        <v>73.581725707516028</v>
-      </c>
-      <c r="L3">
-        <v>74.048132536449302</v>
-      </c>
-      <c r="M3">
-        <v>71.074851363801471</v>
-      </c>
-      <c r="N3">
-        <v>72.869241919010591</v>
-      </c>
-      <c r="O3">
-        <v>31.908378129429536</v>
-      </c>
-      <c r="P3">
-        <v>49.437117323992105</v>
-      </c>
-      <c r="Q3">
-        <v>87.270004518605219</v>
-      </c>
-      <c r="R3">
-        <v>62.140063025524782</v>
-      </c>
-      <c r="S3">
-        <v>71.341814128989412</v>
-      </c>
-      <c r="T3">
-        <v>66.779782326304769</v>
-      </c>
-      <c r="U3">
-        <v>62.696918311791535</v>
-      </c>
-      <c r="V3">
-        <v>75.477605191000691</v>
-      </c>
-      <c r="W3">
-        <v>77.782815109556893</v>
-      </c>
-      <c r="X3">
-        <v>69.921751962487917</v>
-      </c>
-      <c r="Y3">
-        <v>30.982515943128309</v>
-      </c>
-      <c r="Z3">
-        <v>30.994613931163045</v>
-      </c>
-      <c r="AA3">
-        <v>50.449498435488607</v>
-      </c>
-      <c r="AB3">
-        <v>46.501664063050903</v>
-      </c>
-      <c r="AC3">
-        <v>65.628076201330501</v>
-      </c>
-      <c r="AD3">
-        <v>46.881974754576255</v>
-      </c>
-      <c r="AE3">
-        <v>53.617350632880175</v>
-      </c>
-      <c r="AF3">
-        <v>38.594192082374015</v>
-      </c>
-      <c r="AG3">
-        <v>68.279259910480178</v>
-      </c>
-      <c r="AH3">
-        <v>73.10096711937716</v>
-      </c>
-      <c r="AI3">
-        <v>45.38232623781763</v>
-      </c>
-      <c r="AJ3">
-        <v>44.322034929131945</v>
-      </c>
-      <c r="AK3">
-        <v>60.23220289210505</v>
-      </c>
-      <c r="AL3">
-        <v>54.071201147366068</v>
-      </c>
-      <c r="AM3">
-        <v>42.837996016753941</v>
-      </c>
-      <c r="AN3">
-        <v>54.722123176417512</v>
-      </c>
       <c r="AO3">
-        <v>14.543276288253479</v>
+        <v>14.543277303834582</v>
       </c>
       <c r="AP3">
-        <v>50.845552338048748</v>
+        <v>50.845552756339011</v>
       </c>
       <c r="AQ3">
-        <v>82.065695254338223</v>
+        <v>82.065695361940101</v>
       </c>
       <c r="AR3">
-        <v>66.128511354835169</v>
+        <v>66.128511656997844</v>
       </c>
       <c r="AS3">
-        <v>57.845659311851684</v>
+        <v>57.845659615313835</v>
       </c>
       <c r="AT3">
-        <v>51.624687221853861</v>
+        <v>51.624687963564433</v>
       </c>
       <c r="AU3">
-        <v>80.110665283159804</v>
+        <v>80.110664926783187</v>
       </c>
       <c r="AV3">
-        <v>55.275102946755602</v>
+        <v>55.275103428132944</v>
       </c>
       <c r="AW3">
-        <v>61.84281797009281</v>
+        <v>61.842818415652253</v>
       </c>
       <c r="AX3">
-        <v>68.935136697682779</v>
+        <v>68.93513710967936</v>
       </c>
       <c r="AY3">
-        <v>33.26895842529256</v>
+        <v>33.268959158488116</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_common_max.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -337,7 +342,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -351,7 +356,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -513,151 +518,151 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>90.860471830150559</v>
+        <v>90.860471916029525</v>
       </c>
       <c r="C2">
-        <v>85.278802100898545</v>
+        <v>85.278801938916132</v>
       </c>
       <c r="D2">
-        <v>48.813148628896016</v>
+        <v>48.813148317330196</v>
       </c>
       <c r="E2">
-        <v>73.30558426437301</v>
+        <v>73.305584044857653</v>
       </c>
       <c r="F2">
-        <v>66.216947801815692</v>
+        <v>66.216947413160355</v>
       </c>
       <c r="G2">
-        <v>67.229567195735527</v>
+        <v>67.229567205124212</v>
       </c>
       <c r="H2">
-        <v>91.374483963789459</v>
+        <v>91.374483818770145</v>
       </c>
       <c r="I2">
-        <v>81.534822185774104</v>
+        <v>81.534821816404374</v>
       </c>
       <c r="J2">
-        <v>76.685508346658722</v>
+        <v>76.685508077030491</v>
       </c>
       <c r="K2">
-        <v>79.932133429038004</v>
+        <v>79.93213317637381</v>
       </c>
       <c r="L2">
-        <v>85.137707565984087</v>
+        <v>85.137707370925668</v>
       </c>
       <c r="M2">
-        <v>68.835948861765729</v>
+        <v>68.83594907468779</v>
       </c>
       <c r="N2">
-        <v>83.685038754406875</v>
+        <v>83.685038584001106</v>
       </c>
       <c r="O2">
-        <v>55.699168891699358</v>
+        <v>55.699168451803679</v>
       </c>
       <c r="P2">
-        <v>101.27883772276232</v>
+        <v>101.27883778950699</v>
       </c>
       <c r="Q2">
-        <v>85.611492695776349</v>
+        <v>85.611492581789363</v>
       </c>
       <c r="R2">
-        <v>60.778775624858106</v>
+        <v>62.140063025524782</v>
       </c>
       <c r="T2">
-        <v>77.028511977919194</v>
+        <v>77.028511824947842</v>
       </c>
       <c r="U2">
-        <v>60.885629226264257</v>
+        <v>60.885628682385331</v>
       </c>
       <c r="V2">
-        <v>67.836789746097097</v>
+        <v>67.836789263764885</v>
       </c>
       <c r="W2">
-        <v>69.676829483961825</v>
+        <v>69.676829265588125</v>
       </c>
       <c r="X2">
-        <v>81.548860396622757</v>
+        <v>81.548860354004375</v>
       </c>
       <c r="Y2">
-        <v>55.67785581067637</v>
+        <v>55.67785536847164</v>
       </c>
       <c r="Z2">
-        <v>31.934855364191648</v>
+        <v>31.934854842981782</v>
       </c>
       <c r="AA2">
-        <v>42.75393731713794</v>
+        <v>42.75393681786538</v>
       </c>
       <c r="AB2">
-        <v>22.781507801369376</v>
+        <v>22.7815070975686</v>
       </c>
       <c r="AC2">
-        <v>52.993651607899352</v>
+        <v>52.993651277176603</v>
       </c>
       <c r="AD2">
-        <v>35.506721381828307</v>
+        <v>35.506720525962585</v>
       </c>
       <c r="AE2">
-        <v>66.585394272052966</v>
+        <v>66.585393887098888</v>
       </c>
       <c r="AF2">
-        <v>56.264547996416781</v>
+        <v>56.26454766936105</v>
       </c>
       <c r="AG2">
-        <v>58.59862195451889</v>
+        <v>58.598621544015707</v>
       </c>
       <c r="AH2">
-        <v>50.52666295378139</v>
+        <v>50.526662582709122</v>
       </c>
       <c r="AI2">
-        <v>30.751748909029086</v>
+        <v>30.751748302656452</v>
       </c>
       <c r="AJ2">
-        <v>58.563491007841776</v>
+        <v>58.563490696825696</v>
       </c>
       <c r="AK2">
-        <v>76.875347911199171</v>
+        <v>76.875347588072685</v>
       </c>
       <c r="AL2">
-        <v>79.774701594401549</v>
+        <v>79.77470128369977</v>
       </c>
       <c r="AM2">
-        <v>52.557941815545774</v>
+        <v>52.557941537573328</v>
       </c>
       <c r="AN2">
-        <v>51.337072624918413</v>
+        <v>51.337072060398604</v>
       </c>
       <c r="AO2">
-        <v>60.744155045010885</v>
+        <v>60.744154816114872</v>
       </c>
       <c r="AP2">
-        <v>57.329891648986511</v>
+        <v>57.329891261222045</v>
       </c>
       <c r="AQ2">
-        <v>71.519478132967635</v>
+        <v>82.065695254338223</v>
       </c>
       <c r="AR2">
-        <v>68.912156795313578</v>
+        <v>68.912156582675607</v>
       </c>
       <c r="AS2">
-        <v>74.551904389838327</v>
+        <v>74.551903875929852</v>
       </c>
       <c r="AT2">
-        <v>33.459559017458758</v>
+        <v>33.459558556051206</v>
       </c>
       <c r="AU2">
-        <v>73.634715436111335</v>
+        <v>73.63471513656971</v>
       </c>
       <c r="AV2">
-        <v>44.102544108274941</v>
+        <v>44.102543507086345</v>
       </c>
       <c r="AW2">
-        <v>41.173723911593548</v>
+        <v>41.173723408646588</v>
       </c>
       <c r="AX2">
-        <v>42.371493474960516</v>
+        <v>42.371492852737681</v>
       </c>
       <c r="AY2">
-        <v>44.6137306716438</v>
+        <v>44.613730176189321</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +670,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>83.543010822722266</v>
+        <v>83.543010585939058</v>
       </c>
       <c r="C3">
-        <v>70.217221305167541</v>
+        <v>70.217220856918715</v>
       </c>
       <c r="D3">
-        <v>57.357627836268399</v>
+        <v>57.357627020653325</v>
       </c>
       <c r="E3">
-        <v>-58.46780690141847</v>
+        <v>-58.467808491488135</v>
       </c>
       <c r="F3">
-        <v>75.563715016760696</v>
+        <v>75.56371466303068</v>
       </c>
       <c r="G3">
-        <v>66.922366322448838</v>
+        <v>66.922366093784944</v>
       </c>
       <c r="H3">
-        <v>75.705753530188275</v>
+        <v>75.705753328229733</v>
       </c>
       <c r="I3">
-        <v>88.687934806139722</v>
+        <v>88.687934623702503</v>
       </c>
       <c r="J3">
-        <v>69.680620399069582</v>
+        <v>69.680620262535669</v>
       </c>
       <c r="K3">
-        <v>73.581725942150797</v>
+        <v>73.581725707516028</v>
       </c>
       <c r="L3">
-        <v>74.04813278346181</v>
+        <v>74.048132536449302</v>
       </c>
       <c r="M3">
-        <v>71.08309537489103</v>
+        <v>71.074851363801471</v>
       </c>
       <c r="N3">
-        <v>72.869242233839898</v>
+        <v>72.869241919010591</v>
       </c>
       <c r="O3">
-        <v>31.908378433147845</v>
+        <v>31.908378129429536</v>
       </c>
       <c r="P3">
-        <v>49.437118010869838</v>
+        <v>49.437117323992105</v>
       </c>
       <c r="Q3">
-        <v>87.270004632874674</v>
+        <v>87.270004518605219</v>
       </c>
       <c r="R3">
-        <v>62.140063266426878</v>
+        <v>62.424865999607469</v>
       </c>
       <c r="S3">
-        <v>71.341814215933866</v>
+        <v>71.341814128989412</v>
       </c>
       <c r="T3">
-        <v>66.779782651885156</v>
+        <v>66.779782326304769</v>
       </c>
       <c r="U3">
-        <v>62.696918629650511</v>
+        <v>62.696918311791535</v>
       </c>
       <c r="V3">
-        <v>75.477605647442871</v>
+        <v>75.477605191000691</v>
       </c>
       <c r="W3">
-        <v>77.782815364786856</v>
+        <v>77.782815109556893</v>
       </c>
       <c r="X3">
-        <v>69.921752233496022</v>
+        <v>69.921751962487917</v>
       </c>
       <c r="Y3">
-        <v>30.982516596034436</v>
+        <v>30.982515943128309</v>
       </c>
       <c r="Z3">
-        <v>30.994614524123065</v>
+        <v>30.994613931163045</v>
       </c>
       <c r="AA3">
-        <v>50.449498869211219</v>
+        <v>50.449498435488607</v>
       </c>
       <c r="AB3">
-        <v>46.501664669324718</v>
+        <v>46.501664063050903</v>
       </c>
       <c r="AC3">
-        <v>65.628076530120822</v>
+        <v>65.628076201330501</v>
       </c>
       <c r="AD3">
-        <v>46.881975214477109</v>
+        <v>46.881974754576255</v>
       </c>
       <c r="AE3">
-        <v>53.617350830420996</v>
+        <v>53.617350632880175</v>
       </c>
       <c r="AF3">
-        <v>38.594192521847603</v>
+        <v>38.594192082374015</v>
       </c>
       <c r="AG3">
-        <v>68.279260175928655</v>
+        <v>68.279259910480178</v>
       </c>
       <c r="AH3">
-        <v>73.100967449226289</v>
+        <v>73.10096711937716</v>
       </c>
       <c r="AI3">
-        <v>45.382326878010815</v>
+        <v>45.38232623781763</v>
       </c>
       <c r="AJ3">
-        <v>44.322035119610106</v>
+        <v>44.322034929131945</v>
       </c>
       <c r="AK3">
-        <v>60.232203439884188</v>
+        <v>60.23220289210505</v>
       </c>
       <c r="AL3">
-        <v>54.071201695326785</v>
+        <v>54.071201147366068</v>
       </c>
       <c r="AM3">
-        <v>42.837996626649741</v>
+        <v>42.837996016753941</v>
       </c>
       <c r="AN3">
-        <v>54.722123549108382</v>
+        <v>54.722123176417512</v>
       </c>
       <c r="AO3">
-        <v>14.543277303834582</v>
+        <v>14.543276288253479</v>
       </c>
       <c r="AP3">
-        <v>50.845552756339011</v>
+        <v>50.845552338048748</v>
       </c>
       <c r="AQ3">
-        <v>82.065695361940101</v>
+        <v>82.332743271861645</v>
       </c>
       <c r="AR3">
-        <v>66.128511656997844</v>
+        <v>66.128511354835169</v>
       </c>
       <c r="AS3">
-        <v>57.845659615313835</v>
+        <v>57.845659311851684</v>
       </c>
       <c r="AT3">
-        <v>51.624687963564433</v>
+        <v>51.624687221853861</v>
       </c>
       <c r="AU3">
-        <v>80.110664926783187</v>
+        <v>80.110665283159804</v>
       </c>
       <c r="AV3">
-        <v>55.275103428132944</v>
+        <v>55.275102946755602</v>
       </c>
       <c r="AW3">
-        <v>61.842818415652253</v>
+        <v>61.84281797009281</v>
       </c>
       <c r="AX3">
-        <v>68.93513710967936</v>
+        <v>68.935136697682779</v>
       </c>
       <c r="AY3">
-        <v>33.268959158488116</v>
+        <v>33.26895842529256</v>
       </c>
     </row>
   </sheetData>
